--- a/biology/Zoologie/Abracadabrella_elegans/Abracadabrella_elegans.xlsx
+++ b/biology/Zoologie/Abracadabrella_elegans/Abracadabrella_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abracadabrella elegans est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abracadabrella elegans est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Żabka en 1991 mesure 1,59 mm de long sur 1,02 mm et l'abdomen 1,86 mm de long et la carapace de la femelle mesure 1,76 mm de long sur 1,18 mm et l'abdomen 2,72 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Żabka en 1991 mesure 1,59 mm de long sur 1,02 mm et l'abdomen 1,86 mm de long et la carapace de la femelle mesure 1,76 mm de long sur 1,18 mm et l'abdomen 2,72 mm de long.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L. Koch, 1879 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 1045-1156 (texte intégral).</t>
         </is>
